--- a/data/outputs/management_elsevier/40.xlsx
+++ b/data/outputs/management_elsevier/40.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS105"/>
+  <dimension ref="A1:BU105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +935,12 @@
           <t>2-s2.0-84935491657</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2211</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1132,6 +1148,12 @@
           <t>2-s2.0-84936931403</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2881</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1365,12 @@
           <t>2-s2.0-84956681954</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2861</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84937421725</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>3425</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1785,6 +1819,12 @@
           <t>2-s2.0-84939499671</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1992,6 +2032,12 @@
           <t>2-s2.0-84945161545</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3387</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2195,6 +2241,12 @@
           <t>2-s2.0-84945138682</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2086</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2402,6 +2454,12 @@
           <t>2-s2.0-84961286494</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2627,6 +2685,12 @@
           <t>2-s2.0-84939200558</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>43221</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2845,6 +2909,12 @@
         <is>
           <t>2-s2.0-84939195732</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>1648</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -3045,6 +3115,12 @@
           <t>2-s2.0-84939264007</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>817</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3256,6 +3332,12 @@
           <t>2-s2.0-84939262426</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1484</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3475,6 +3557,12 @@
           <t>2-s2.0-84939255304</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3573</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3693,6 +3781,12 @@
         <is>
           <t>2-s2.0-84939265868</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1727</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -3901,6 +3995,12 @@
           <t>2-s2.0-84939265725</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2222</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4107,6 +4207,12 @@
         <is>
           <t>2-s2.0-84939143468</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>3552</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -4307,6 +4413,12 @@
           <t>2-s2.0-84939263008</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4516,6 +4628,12 @@
           <t>2-s2.0-84925674611</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>6931</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4723,6 +4841,12 @@
           <t>2-s2.0-84926034916</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2249</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4926,6 +5050,12 @@
           <t>2-s2.0-84926172042</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2491</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5131,6 +5261,12 @@
           <t>2-s2.0-84926173364</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3164</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5346,6 +5482,12 @@
           <t>2-s2.0-84928137420</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1444</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5567,6 +5709,12 @@
           <t>2-s2.0-84928136156</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>6360</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5778,6 +5926,12 @@
           <t>2-s2.0-84930671831</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1782</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5995,6 +6149,12 @@
           <t>2-s2.0-84930642206</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1238</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6210,6 +6370,12 @@
           <t>2-s2.0-84937828263</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1366</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6429,6 +6595,12 @@
           <t>2-s2.0-84930681648</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1374</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6642,6 +6814,12 @@
           <t>2-s2.0-84930677319</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1021</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6849,6 +7027,12 @@
           <t>2-s2.0-84930670894</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>4253</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7064,6 +7248,12 @@
           <t>2-s2.0-84930684798</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1156</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7283,6 +7473,12 @@
           <t>2-s2.0-84937961589</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1663</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7498,6 +7694,12 @@
           <t>2-s2.0-84937919168</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1682</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7705,6 +7907,12 @@
           <t>2-s2.0-84930936119</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1375</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7912,6 +8120,12 @@
           <t>2-s2.0-84934900115</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2170</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8119,6 +8333,12 @@
           <t>2-s2.0-84934891091</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>948</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8340,6 +8560,12 @@
           <t>2-s2.0-84934909782</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1158</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8547,6 +8773,12 @@
           <t>2-s2.0-84935025632</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2423</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8766,6 +8998,12 @@
           <t>2-s2.0-84927758673</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2347</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8977,6 +9215,12 @@
           <t>2-s2.0-84930634980</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2482</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9188,6 +9432,12 @@
           <t>2-s2.0-84937868910</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>4492</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9398,6 +9648,12 @@
         <is>
           <t>2-s2.0-84930940459</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>6113</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -9594,6 +9850,12 @@
           <t>2-s2.0-84937761384</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>395</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9813,6 +10075,12 @@
           <t>2-s2.0-84937763116</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>5290</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10028,6 +10296,12 @@
           <t>2-s2.0-84937760028</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>3099</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10235,6 +10509,12 @@
           <t>2-s2.0-84937764471</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2461</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10454,6 +10734,12 @@
           <t>2-s2.0-84937762638</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>4036</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10657,6 +10943,12 @@
           <t>2-s2.0-84937762652</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1568</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10872,6 +11164,12 @@
           <t>2-s2.0-84937764569</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>840</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11087,6 +11385,12 @@
           <t>2-s2.0-84937763605</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1869</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11308,6 +11612,12 @@
           <t>2-s2.0-84921991430</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1003</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11519,6 +11829,12 @@
           <t>2-s2.0-84923055901</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1510</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11734,6 +12050,12 @@
           <t>2-s2.0-84923091774</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11947,6 +12269,12 @@
           <t>2-s2.0-84923365618</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1096</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12162,6 +12490,12 @@
           <t>2-s2.0-84923640351</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>4240</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12375,6 +12709,12 @@
           <t>2-s2.0-84923341637</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1772</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12590,6 +12930,12 @@
           <t>2-s2.0-84924565959</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>6226</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12805,6 +13151,12 @@
           <t>2-s2.0-84924764555</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2576</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13020,6 +13372,12 @@
           <t>2-s2.0-84924989371</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>858</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13231,6 +13589,12 @@
           <t>2-s2.0-84922432475</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>2835</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13438,6 +13802,12 @@
           <t>2-s2.0-84923055275</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>868</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13645,6 +14015,12 @@
           <t>2-s2.0-84923927651</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>4469</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13858,6 +14234,12 @@
           <t>2-s2.0-84924551643</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>2301</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14065,6 +14447,12 @@
           <t>2-s2.0-84920901698</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1913</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14268,6 +14656,12 @@
           <t>2-s2.0-84920911137</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1161</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14471,6 +14865,12 @@
           <t>2-s2.0-84921507820</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>940</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14686,6 +15086,12 @@
           <t>2-s2.0-84921916121</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>2379</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14893,6 +15299,12 @@
           <t>2-s2.0-84921981022</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>6375</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15100,6 +15512,12 @@
           <t>2-s2.0-84922424157</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>3735</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15309,6 +15727,12 @@
           <t>2-s2.0-84904333220</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>2755</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15516,6 +15940,12 @@
           <t>2-s2.0-85027920842</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1633</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15719,6 +16149,12 @@
           <t>2-s2.0-84920202587</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1342</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15926,6 +16362,12 @@
           <t>2-s2.0-84920166049</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1252</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16139,6 +16581,12 @@
           <t>2-s2.0-84920177669</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>2093</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16350,6 +16798,12 @@
           <t>2-s2.0-85027957802</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>4251</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16557,6 +17011,12 @@
           <t>2-s2.0-84920139525</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>3627</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16764,6 +17224,12 @@
           <t>2-s2.0-84920142090</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1667</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16969,6 +17435,12 @@
           <t>2-s2.0-84920199735</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>2805</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17180,6 +17652,12 @@
           <t>2-s2.0-84920126698</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1469</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17387,6 +17865,12 @@
           <t>2-s2.0-84920178546</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>2061</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17602,6 +18086,12 @@
           <t>2-s2.0-84920148303</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>5197</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17817,6 +18307,12 @@
           <t>2-s2.0-84920168146</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1150</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18020,6 +18516,12 @@
           <t>2-s2.0-84920132746</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>1282</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18227,6 +18729,12 @@
           <t>2-s2.0-84920146361</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>1734</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18438,6 +18946,12 @@
           <t>2-s2.0-84920150035</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>7377</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18659,6 +19173,12 @@
           <t>2-s2.0-84920114664</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>2808</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18866,6 +19386,12 @@
           <t>2-s2.0-84920151021</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>2460</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19077,6 +19603,12 @@
           <t>2-s2.0-84920177545</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1868</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19294,6 +19826,12 @@
           <t>2-s2.0-84920145210</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>6199</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19497,6 +20035,12 @@
           <t>2-s2.0-84920159581</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>2050</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19704,6 +20248,12 @@
           <t>2-s2.0-84920114785</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>672</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19909,6 +20459,12 @@
           <t>2-s2.0-84920128681</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>1460</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20116,6 +20672,12 @@
           <t>2-s2.0-84920193828</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>6695</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20331,6 +20893,12 @@
           <t>2-s2.0-84920187120</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2093</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20534,6 +21102,12 @@
           <t>2-s2.0-84920131037</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1827</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20743,6 +21317,12 @@
           <t>2-s2.0-84920196226</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>5007</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20952,6 +21532,12 @@
           <t>2-s2.0-84920141757</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1942</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21165,6 +21751,12 @@
           <t>2-s2.0-84920166450</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>6530</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21374,6 +21966,12 @@
           <t>2-s2.0-84920192306</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>1760</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21581,6 +22179,12 @@
           <t>2-s2.0-84920268385</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>15977</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21800,6 +22404,12 @@
           <t>2-s2.0-84920125555</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1747</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22011,6 +22621,12 @@
           <t>2-s2.0-84920150697</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>1220</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22226,6 +22842,12 @@
           <t>2-s2.0-84920124899</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>16871</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22433,6 +23055,12 @@
           <t>2-s2.0-84920269532</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1068</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22644,6 +23272,12 @@
           <t>2-s2.0-84920123372</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>690</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
